--- a/DatabaseExport/ForecastPeriods.xlsx
+++ b/DatabaseExport/ForecastPeriods.xlsx
@@ -1,28 +1,300 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1089985\Documents\SchedulerData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D13D20-A9A0-40A4-8DBB-0ACDD62EA82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="29925" yWindow="405" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="ForecastPeriods"/>
+    <sheet name="ForecastPeriods" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ForecastPeriods">'ForecastPeriods'!$A$1:$D$63</definedName>
+    <definedName name="ForecastPeriods">ForecastPeriods!$A$1:$D$89</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ReportID</t>
+  </si>
+  <si>
+    <t>FiscalMonth</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>10/2,10/9,10/16,10/23</t>
+  </si>
+  <si>
+    <t>10/30,11/6,11/13,11/20</t>
+  </si>
+  <si>
+    <t>11/27,12/4,12/11,12/18,12/25</t>
+  </si>
+  <si>
+    <t>1/1,1/8,1/15,1/22</t>
+  </si>
+  <si>
+    <t>1/29,2/5,2/12,2/19</t>
+  </si>
+  <si>
+    <t>2/26,3/5,3/12,3/19,3/26</t>
+  </si>
+  <si>
+    <t>4/2,4/9,4/16,4/21</t>
+  </si>
+  <si>
+    <t>4/30,5/7,5/14,5/21</t>
+  </si>
+  <si>
+    <t>5/28,6/4,6/11,6/18,6/25</t>
+  </si>
+  <si>
+    <t>7/2,7/9,7/16,7/23</t>
+  </si>
+  <si>
+    <t>7/30,8/6,8/13,8/20</t>
+  </si>
+  <si>
+    <t>8/27,9/3,9/10,9/17,9/24</t>
+  </si>
+  <si>
+    <t>10/1</t>
+  </si>
+  <si>
+    <t>5/7,5/14,5/21,5/28</t>
+  </si>
+  <si>
+    <t>6/4,6/11,6/18,6/25,7/2</t>
+  </si>
+  <si>
+    <t>7/9,7/16,7/23,7/30</t>
+  </si>
+  <si>
+    <t>8/6,8/13,8/20,8/27</t>
+  </si>
+  <si>
+    <t>9/3,9/10,9/17,9/24,10/1</t>
+  </si>
+  <si>
+    <t>10/8,10/15,10/22,10/29</t>
+  </si>
+  <si>
+    <t>11/5,11/12,11/19,11/26</t>
+  </si>
+  <si>
+    <t>12/3,12/10,12/17,12/24,12/31</t>
+  </si>
+  <si>
+    <t>1/7,1/14,1/21,1/28</t>
+  </si>
+  <si>
+    <t>2/4,2/11,2/18,2/25</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>10/3,10/10,10/17,10/24</t>
+  </si>
+  <si>
+    <t>10/31,11/7,11/14,11/21</t>
+  </si>
+  <si>
+    <t>11/28,12/5,12/12,12/19,12/26</t>
+  </si>
+  <si>
+    <t>1/2,1/9,1/16,1/23</t>
+  </si>
+  <si>
+    <t>1/30,2/6,2/13,2/20</t>
+  </si>
+  <si>
+    <t>2/27,3/6,3/13,3/20,3/27</t>
+  </si>
+  <si>
+    <t>4/3,4/10,4/17,4/24</t>
+  </si>
+  <si>
+    <t>5/1,5/8,5/15,5/22</t>
+  </si>
+  <si>
+    <t>5/29,6/5,6/12,6/19,6/26</t>
+  </si>
+  <si>
+    <t>7/3,7/10,7/17,7/24</t>
+  </si>
+  <si>
+    <t>7/31,8/7,8/14,8/21</t>
+  </si>
+  <si>
+    <t>8/28,9/4,9/11,9/18,9/25</t>
+  </si>
+  <si>
+    <t>10/2</t>
+  </si>
+  <si>
+    <t>3/4,3/11,3/18,3/25,4/1</t>
+  </si>
+  <si>
+    <t>4/8,4/15,4/22,4/29</t>
+  </si>
+  <si>
+    <t>5/6,5/13,5/20,5/27,6/3</t>
+  </si>
+  <si>
+    <t>6/10,6/17,6/24,7/1</t>
+  </si>
+  <si>
+    <t>7/8,7/15,7/22,7/29</t>
+  </si>
+  <si>
+    <t>8/5,8/12,8/19,8/26,9/2</t>
+  </si>
+  <si>
+    <t>9/9,9/16,9/23,9/30</t>
+  </si>
+  <si>
+    <t>10/7,10/14,10/21,10/28</t>
+  </si>
+  <si>
+    <t>11/4,11/11,11/18,11/25,12/2</t>
+  </si>
+  <si>
+    <t>12/9,12/16,12/23,12/30</t>
+  </si>
+  <si>
+    <t>1/6,1/13,1/20,1/27</t>
+  </si>
+  <si>
+    <t>2/3,2/10,2/17,2/24,3/3</t>
+  </si>
+  <si>
+    <t>4/10,4/17,4/24,5/1</t>
+  </si>
+  <si>
+    <t>5/8,5/15,5/22,5/29</t>
+  </si>
+  <si>
+    <t>6/5,6/12,6/19,6/26,7/3</t>
+  </si>
+  <si>
+    <t>7/10,7/17,7/24,7/31</t>
+  </si>
+  <si>
+    <t>8/7,8/14,8/21,8/28</t>
+  </si>
+  <si>
+    <t>9/4,9/11,9/18,9/25,10/2</t>
+  </si>
+  <si>
+    <t>10/9,10/16,10/23,10/30</t>
+  </si>
+  <si>
+    <t>11/6,11/13,11/20,11/27</t>
+  </si>
+  <si>
+    <t>12/4,12/11,12/18,12/25,1/1</t>
+  </si>
+  <si>
+    <t>1/8,1/15,1/22,1/29</t>
+  </si>
+  <si>
+    <t>2/5,2/12,2/19,2/26</t>
+  </si>
+  <si>
+    <t>3/5,3/12,3/19,3/26,4/2</t>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <t>3/3,3/10,3/17,3/24,3/31</t>
+  </si>
+  <si>
+    <t>4/7,4/14,4/21,4/28</t>
+  </si>
+  <si>
+    <t>5/5,5/12,5/19,5/26</t>
+  </si>
+  <si>
+    <t>6/2,6/9,6/16,6/23,6/30</t>
+  </si>
+  <si>
+    <t>7/7,7/14,7/21,7/28</t>
+  </si>
+  <si>
+    <t>8/4,8/11,8/18,8/25</t>
+  </si>
+  <si>
+    <t>9/1,9/8,9/15,9/22,9/29</t>
+  </si>
+  <si>
+    <t>10/6,10/13,10/20,10/27</t>
+  </si>
+  <si>
+    <t>11/3,11/10,11/17,11/24</t>
+  </si>
+  <si>
+    <t>12/1,12/8,12/15,12/22,12/29</t>
+  </si>
+  <si>
+    <t>1/5,1/12,1/19,1/26</t>
+  </si>
+  <si>
+    <t>2/2,2/9,2/16,2/23</t>
+  </si>
+  <si>
+    <t>3/1,3/8,3/15,3/22,3/29</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>4/9,4/16,4/23,4/30</t>
+  </si>
+  <si>
+    <t>8/6,8/13,8/20,8/27,9/3</t>
+  </si>
+  <si>
+    <t>9/10,9/17,9/23,10/1</t>
+  </si>
+  <si>
+    <t>11/5,11/12,11/19,11/26,12/3</t>
+  </si>
+  <si>
+    <t>12/10,12/17,12/24,12/31</t>
+  </si>
+  <si>
+    <t>2/4,2/11,2/18,2/25,3/3</t>
+  </si>
+  <si>
+    <t>3/10,3/17,3/24,3/31</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,11 +319,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -59,6 +330,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -105,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -137,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,1030 +661,1305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>ReportID</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>FiscalMonth</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Periods</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>44105</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>10/2,10/9,10/16,10/23</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>44136</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>10/30,11/6,11/13,11/20</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>44166</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>11/27,12/4,12/11,12/18,12/25</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>44197</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>1/1,1/8,1/15,1/22</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>44228</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>1/29,2/5,2/12,2/19</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>44256</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>2/26,3/5,3/12,3/19,3/26</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>44287</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>4/2,4/9,4/16,4/21</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>44317</v>
       </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>4/30,5/7,5/14,5/21</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>44348</v>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>5/28,6/4,6/11,6/18,6/25</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>44378</v>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>7/2,7/9,7/16,7/23</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>44409</v>
       </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>7/30,8/6,8/13,8/20</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>44440</v>
       </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>8/27,9/3,9/10,9/17,9/24</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="0">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>44470</v>
       </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>10/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="0">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>44317</v>
       </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>5/7,5/14,5/21,5/28</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="0">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>44348</v>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>6/4,6/11,6/18,6/25,7/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="0">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>44378</v>
       </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>7/9,7/16,7/23,7/30</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>44409</v>
       </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>8/6,8/13,8/20,8/27</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>44440</v>
       </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>9/3,9/10,9/17,9/24,10/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>44470</v>
       </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>10/8,10/15,10/22,10/29</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>44501</v>
       </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>11/5,11/12,11/19,11/26</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="0">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>44531</v>
       </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>12/3,12/10,12/17,12/24,12/31</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="0">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>44562</v>
       </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>1/7,1/14,1/21,1/28</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="0">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>44593</v>
       </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>2/4,2/11,2/18,2/25</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="0">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>44621</v>
       </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="0">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>44470</v>
       </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>10/3,10/10,10/17,10/24</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="0">
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>44501</v>
       </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>10/31,11/7,11/14,11/21</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="0">
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>44531</v>
       </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>11/28,12/5,12/12,12/19,12/26</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="0">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>44562</v>
       </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>1/2,1/9,1/16,1/23</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="0">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>44593</v>
       </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>1/30,2/6,2/13,2/20</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="0">
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>44621</v>
       </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>2/27,3/6,3/13,3/20,3/27</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="0">
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>44652</v>
       </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>4/3,4/10,4/17,4/24</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="0">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>44682</v>
       </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>5/1,5/8,5/15,5/22</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="0">
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>44713</v>
       </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t>5/29,6/5,6/12,6/19,6/26</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="0">
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>44743</v>
       </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t>7/3,7/10,7/17,7/24</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="0">
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" s="1">
         <v>44774</v>
       </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t>7/31,8/7,8/14,8/21</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="0">
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>44805</v>
       </c>
-      <c r="D37" s="0" t="inlineStr">
-        <is>
-          <t>8/28,9/4,9/11,9/18,9/25</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="0">
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="1">
         <v>44835</v>
       </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t>10/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="0">
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>44621</v>
       </c>
-      <c r="D39" s="0" t="inlineStr">
-        <is>
-          <t>3/4,3/11,3/18,3/25,4/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="0">
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>44652</v>
       </c>
-      <c r="D40" s="0" t="inlineStr">
-        <is>
-          <t>4/8,4/15,4/22,4/29</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="0">
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" s="1">
         <v>44682</v>
       </c>
-      <c r="D41" s="0" t="inlineStr">
-        <is>
-          <t>5/6,5/13,5/20,5/27,6/3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="0">
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" s="1">
         <v>44713</v>
       </c>
-      <c r="D42" s="0" t="inlineStr">
-        <is>
-          <t>6/10,6/17,6/24,7/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="0">
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" s="1">
         <v>44743</v>
       </c>
-      <c r="D43" s="0" t="inlineStr">
-        <is>
-          <t>7/8,7/15,7/22,7/29</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="0">
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" s="1">
         <v>44774</v>
       </c>
-      <c r="D44" s="0" t="inlineStr">
-        <is>
-          <t>8/5,8/12,8/19,8/26,9/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="0">
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" s="1">
         <v>44805</v>
       </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t>9/9,9/16,9/23,9/30</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="0">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" s="1">
         <v>44835</v>
       </c>
-      <c r="D46" s="0" t="inlineStr">
-        <is>
-          <t>10/7,10/14,10/21,10/28</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="0">
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>4</v>
       </c>
       <c r="C47" s="1">
         <v>44866</v>
       </c>
-      <c r="D47" s="0" t="inlineStr">
-        <is>
-          <t>11/4,11/11,11/18,11/25,12/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="0">
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" s="1">
         <v>44896</v>
       </c>
-      <c r="D48" s="0" t="inlineStr">
-        <is>
-          <t>12/9,12/16,12/23,12/30</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="0">
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" s="1">
         <v>44927</v>
       </c>
-      <c r="D49" s="0" t="inlineStr">
-        <is>
-          <t>1/6,1/13,1/20,1/27</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="0">
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>44958</v>
       </c>
-      <c r="D50" s="0" t="inlineStr">
-        <is>
-          <t>2/3,2/10,2/17,2/24,3/3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="0">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>44652</v>
       </c>
-      <c r="D51" s="0" t="inlineStr">
-        <is>
-          <t>4/10,4/17,4/24,5/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="0">
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" s="1">
         <v>44682</v>
       </c>
-      <c r="D52" s="0" t="inlineStr">
-        <is>
-          <t>5/8,5/15,5/22,5/29</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="0">
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>5</v>
       </c>
       <c r="C53" s="1">
         <v>44713</v>
       </c>
-      <c r="D53" s="0" t="inlineStr">
-        <is>
-          <t>6/5,6/12,6/19,6/26,7/3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="0">
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>44743</v>
       </c>
-      <c r="D54" s="0" t="inlineStr">
-        <is>
-          <t>7/10,7/17,7/24,7/31</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="0">
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>44774</v>
       </c>
-      <c r="D55" s="0" t="inlineStr">
-        <is>
-          <t>8/7,8/14,8/21,8/28</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="0">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>44805</v>
       </c>
-      <c r="D56" s="0" t="inlineStr">
-        <is>
-          <t>9/4,9/11,9/18,9/25,10/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="0">
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>44835</v>
       </c>
-      <c r="D57" s="0" t="inlineStr">
-        <is>
-          <t>10/9,10/16,10/23,10/30</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="0">
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>5</v>
       </c>
       <c r="C58" s="1">
         <v>44866</v>
       </c>
-      <c r="D58" s="0" t="inlineStr">
-        <is>
-          <t>11/6,11/13,11/20,11/27</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="0">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>5</v>
       </c>
       <c r="C59" s="1">
         <v>44896</v>
       </c>
-      <c r="D59" s="0" t="inlineStr">
-        <is>
-          <t>12/4,12/11,12/18,12/25,1/1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="0">
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>5</v>
       </c>
       <c r="C60" s="1">
         <v>44927</v>
       </c>
-      <c r="D60" s="0" t="inlineStr">
-        <is>
-          <t>1/8,1/15,1/22,1/29</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="0">
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>5</v>
       </c>
       <c r="C61" s="1">
         <v>44958</v>
       </c>
-      <c r="D61" s="0" t="inlineStr">
-        <is>
-          <t>2/5,2/12,2/19,2/26</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="0">
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>44986</v>
       </c>
-      <c r="D62" s="0" t="inlineStr">
-        <is>
-          <t>3/5,3/12,3/19,3/26,4/2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="0">
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>44621</v>
       </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t>4/3</t>
-        </is>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45231</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45261</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45292</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45323</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45352</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45047</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45261</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45292</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45323</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45352</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</oddHeader>
+    <evenHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</evenHeader>
+    <firstHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</firstHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9ImRlY2VjYmQ2LWRhM2ItNDZmZS04ZjAwLWY5ZDlkZWVhMmVlMSIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iYTRhOWYzODItOGNlYy00MGJiLWE5YzMtYzE4NzZkZWQ5ZGVlIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PGVsZW1lbnQgdWlkPSJiYmE5NGM2NS1hYzNkLTRmMzQtYjJlMS04ZGUxMWVmNmYwMWMiIHZhbHVlPSIiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDA4LzAxL3NpZS9pbnRlcm5hbC9sYWJlbCIgLz48ZWxlbWVudCB1aWQ9ImJjMmI3YzAxLTZkYjEtNGU3ZC04OGQxLWZjNjE2NzRmODZmZCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iOTJlOTkzYTMtYWYzMi00YWZiLWFhMTktM2E0OWNkYjgyYzdhIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PC9zaXNsPjxVc2VyTmFtZT5VU1wxMDg5OTg1PC9Vc2VyTmFtZT48RGF0ZVRpbWU+NS8xLzIwMjMgOTozODoyNyBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIHwgVW5yZXN0cmljdGVkIENvbnRlbnQgfCBSYXl0aGVvbiBUZWNobm9sb2dpZXMgKENvcnBvcmF0ZSBPbmx5KSB8IE90aGVyIEluZm9ybWF0aW9uIChOb3QgUmVxdWlyaW5nIGFuIEV4cG9ydCBDb250cm9sIE1hcmtpbmcpIHwgTm8gbWFya2luZyBhcHBsaWVkIGJ5IHRoZSB0b29sPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="userSelected">
+  <element uid="dececbd6-da3b-46fe-8f00-f9d9deea2ee1" value=""/>
+  <element uid="a4a9f382-8cec-40bb-a9c3-c1876ded9dee" value=""/>
+  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
+  <element uid="bc2b7c01-6db1-4e7d-88d1-fc61674f86fd" value=""/>
+  <element uid="92e993a3-af32-4afb-aa19-3a49cdb82c7a" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC801794-4D5D-4D19-BBC3-57A8ACE7DAF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A574120-F283-460B-B306-0C892D576F9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>